--- a/Protocols/Workbook to determine std curve conc.xlsx
+++ b/Protocols/Workbook to determine std curve conc.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emlim/Documents/MSc/Ch3_Field/Protocols/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emlim/Documents/PhD/Ch2_Spatial_pee/Protocols/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F67FE09-25D9-4944-A390-D2D49B7E7A18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5F48A7-3ECB-4445-8D28-FC82C40625CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="27640" windowHeight="15440" xr2:uid="{F262975C-2EA1-CA43-845B-AEA0F4A1E65F}"/>
+    <workbookView xWindow="10480" yWindow="460" windowWidth="17300" windowHeight="15440" xr2:uid="{F262975C-2EA1-CA43-845B-AEA0F4A1E65F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>nh4_conc_og_umol</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>target</t>
+  </si>
+  <si>
+    <t>guessed NH₄⁺ conc</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6C08AA-DA53-1943-8829-E20F87E9B8E7}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -405,7 +408,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,8 +430,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>200</v>
       </c>
@@ -451,10 +457,14 @@
         <v>0</v>
       </c>
       <c r="G2">
+        <f>0*H2</f>
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>200</v>
       </c>
@@ -477,89 +487,101 @@
         <v>0.49875311720698251</v>
       </c>
       <c r="G3">
-        <f>2*0.25</f>
-        <v>0.5</v>
+        <f>H3*0.25</f>
+        <v>0.375</v>
+      </c>
+      <c r="H3">
+        <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>200</v>
       </c>
       <c r="B4">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C4">
         <v>0.04</v>
       </c>
       <c r="D4">
         <f>0.04+(B4*0.000001)</f>
-        <v>4.0399999999999998E-2</v>
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="E4">
         <f>A4*B4*0.000001</f>
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>1.9801980198019804</v>
+        <v>1.4888337468982629</v>
       </c>
       <c r="G4">
-        <f>2*1</f>
-        <v>2</v>
+        <f>H4*1</f>
+        <v>1.5</v>
+      </c>
+      <c r="H4">
+        <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>200</v>
       </c>
       <c r="B5">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="C5">
         <v>0.04</v>
       </c>
       <c r="D5">
         <f>0.04+(B5*0.000001)</f>
-        <v>4.0800000000000003E-2</v>
+        <v>4.0600000000000004E-2</v>
       </c>
       <c r="E5">
         <f>A5*B5*0.000001</f>
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>3.9215686274509802</v>
+        <v>2.9556650246305414</v>
       </c>
       <c r="G5">
-        <f>2*2</f>
-        <v>4</v>
+        <f>H5*2</f>
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>200</v>
       </c>
       <c r="B6">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="C6">
         <v>0.04</v>
       </c>
       <c r="D6">
         <f>0.04+(B6*0.000001)</f>
-        <v>4.1300000000000003E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="E6">
         <f>A6*B6*0.000001</f>
-        <v>0.26</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>6.2953995157384988</v>
+        <v>4.8780487804878039</v>
       </c>
       <c r="G6">
-        <f>2*3</f>
-        <v>6</v>
+        <f>H6*3</f>
+        <v>4.5</v>
+      </c>
+      <c r="H6">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
